--- a/assets/docs/Asesoría financiera (Respuestas).xlsx
+++ b/assets/docs/Asesoría financiera (Respuestas).xlsx
@@ -9,20 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$M$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$M$51</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="155">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -153,9 +158,6 @@
     <t>No tengo plata</t>
   </si>
   <si>
-    <t>Estudio y trabajo dependiente</t>
-  </si>
-  <si>
     <t>Entre 501 y 1000 soles</t>
   </si>
   <si>
@@ -177,6 +179,9 @@
     <t>Menos de 100 soles</t>
   </si>
   <si>
+    <t>Invertir en un negocio</t>
+  </si>
+  <si>
     <t>Para ganar en base a la inversion</t>
   </si>
   <si>
@@ -213,9 +218,6 @@
     <t>Ganar intereses</t>
   </si>
   <si>
-    <t>Jubliación y futuro familiar</t>
-  </si>
-  <si>
     <t>Para poder duplicar mi presupuesto..</t>
   </si>
   <si>
@@ -270,9 +272,6 @@
     <t>No tengo plata, Desconfió</t>
   </si>
   <si>
-    <t xml:space="preserve">También independiente </t>
-  </si>
-  <si>
     <t>Entre 1001 a 1500 soles</t>
   </si>
   <si>
@@ -291,9 +290,6 @@
     <t>Para generar más ingresos</t>
   </si>
   <si>
-    <t>Jubliación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc), Invertir en un negocio</t>
-  </si>
-  <si>
     <t>Aún nosé en que invertir.</t>
   </si>
   <si>
@@ -307,6 +303,197 @@
   </si>
   <si>
     <t>Indique q si estaria dispuesta a invertir.</t>
+  </si>
+  <si>
+    <t>Prefiero solo ahorrar.</t>
+  </si>
+  <si>
+    <t>Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc), Conciertos, Salidas, Trabajos, Ropa y zapatos (no me gusta que mis padres me den para pagar alguno de estos)</t>
+  </si>
+  <si>
+    <t>Aún no tengo la oportunidad de invertir-</t>
+  </si>
+  <si>
+    <t>Sí estoy dispuesta</t>
+  </si>
+  <si>
+    <t>Por creo que para invertir se necesita un fuerte capital</t>
+  </si>
+  <si>
+    <t>Emergencias e imprevistos, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)</t>
+  </si>
+  <si>
+    <t>Porque las finanzas o temas de dinero no son lo mío, me causa mucha inseguridad por el tema legal, y mi sueldo al menos en la época en la que trabajaba(ahora me encuentro estudiando) mi sueldo era poco, se iba en gastos familiares, apenas y podía ahorrar para algo. 
+Pero, si me informase mejor de cómo hacerlo correctamente, me animaría a hacerlo.</t>
+  </si>
+  <si>
+    <t>Pagar estudios universitarios</t>
+  </si>
+  <si>
+    <t>Pretamo de dinero</t>
+  </si>
+  <si>
+    <t>No he tenido plata</t>
+  </si>
+  <si>
+    <t>No tenía muy claro el tema de las inveriosiones</t>
+  </si>
+  <si>
+    <t>Emergencias e imprevistos, Vacaciones y viajes, Operación a la vista</t>
+  </si>
+  <si>
+    <t>Riesgo de pérdida del capital</t>
+  </si>
+  <si>
+    <t>Tengo miedo con lo que pueda pasar con mi dinero</t>
+  </si>
+  <si>
+    <t>Trabajo y estudio</t>
+  </si>
+  <si>
+    <t>Vacaciones y viajes, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)</t>
+  </si>
+  <si>
+    <t>No me gusta arriesgar</t>
+  </si>
+  <si>
+    <t>Emergencias e imprevistos, Adquirir un automóvil, Invertir en un negocio</t>
+  </si>
+  <si>
+    <t>Para ganar mas dinero :v</t>
+  </si>
+  <si>
+    <t>porque el monto de dinero que ahorro es pequeño</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Porque podría generar algún ingreso extra.</t>
+  </si>
+  <si>
+    <t>38 a más</t>
+  </si>
+  <si>
+    <t>No sabía en donde</t>
+  </si>
+  <si>
+    <t>No tengo asesoría para hacerlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí quiero hacerlo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siento que me falta información para hacerlo 
+</t>
+  </si>
+  <si>
+    <t>No sé de finanzas</t>
+  </si>
+  <si>
+    <t>No soy de hacer negocios, me parece que es correr un riesgo, me da temor.</t>
+  </si>
+  <si>
+    <t>No tengo plata, Temor a perder lo invertido</t>
+  </si>
+  <si>
+    <t>Me da miedo y siento que no soy una persona muy orientada a esas cosas</t>
+  </si>
+  <si>
+    <t>Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda, Invertir en un negocio</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Crecimiento empresarial</t>
+  </si>
+  <si>
+    <t>Si estoy dispuesto</t>
+  </si>
+  <si>
+    <t>Estudios</t>
+  </si>
+  <si>
+    <t>No estoy interesada</t>
+  </si>
+  <si>
+    <t>Vacaciones y viajes, Estudios</t>
+  </si>
+  <si>
+    <t>No he buscado información al respecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porque quiero tener mas , para ganar mas </t>
+  </si>
+  <si>
+    <t>Entre 41% a 60%</t>
+  </si>
+  <si>
+    <t>Por un negocio de belleza</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Construcción de viviendas y empresa familiar</t>
+  </si>
+  <si>
+    <t>No sé en qué</t>
+  </si>
+  <si>
+    <t>Comprar cosas que necesite en un futuro cercano o que me gusten</t>
+  </si>
+  <si>
+    <t>No se como</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Cuenta de Marca temporal</t>
+  </si>
+  <si>
+    <t>Adquirir un automóvil</t>
+  </si>
+  <si>
+    <t>Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)</t>
+  </si>
+  <si>
+    <t>Motivos</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc), Invertir en un negocio</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Vacaciones y viajes, Adquirir una vivienda</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Emergencias e imprevistos, Invertir en un negocio</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Invertir en un negocio</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda</t>
+  </si>
+  <si>
+    <t>Jubilación y futuro familiar, Emergencias e imprevistos</t>
+  </si>
+  <si>
+    <t>Otros (futuras inversiones, estudios, conciertos, salidas, lujos,operación salud)</t>
+  </si>
+  <si>
+    <t>Otros (falta de conocimiento, solo quiero ahorrar, demasiadas dudas,temor a perder)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,13 +513,35 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -344,16 +553,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,6 +587,4006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BA56-452A-B2AC-A6E873A1BC8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BA56-452A-B2AC-A6E873A1BC8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BA56-452A-B2AC-A6E873A1BC8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-PE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BA56-452A-B2AC-A6E873A1BC8D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-PE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BA56-452A-B2AC-A6E873A1BC8D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-PE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BA56-452A-B2AC-A6E873A1BC8D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sí</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$13:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA56-452A-B2AC-A6E873A1BC8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$5:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Adquirir un automóvil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jubilación y futuro familiar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Adquirir una vivienda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otros (futuras inversiones, estudios, conciertos, salidas, lujos,operación salud)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Invertir en un negocio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emergencias e imprevistos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vacaciones y viajes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0927835051546393E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1237113402061855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2783505154639179E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14432989690721648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22680412371134021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25773195876288657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3A9-45CD-933C-50AE74EE4494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="184787808"/>
+        <c:axId val="289319296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="184787808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289319296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289319296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184787808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$28:$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Me da flojera</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Otros (falta de conocimiento, solo quiero ahorrar, demasiadas dudas,temor a perder)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No sé de finanzas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>No tengo plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Desconfió</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$28:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8387096774193547E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4516129032258063E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24193548387096775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33E5-4CD5-9578-9469C126E1B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="259029456"/>
+        <c:axId val="253183792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="259029456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253183792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253183792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="259029456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1" descr="Gráfico de las respuestas de Formularios. Título de la pregunta: Edad. Número de respuestas: 51&amp;nbsp;respuestas."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="4048125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="AutoShape 2" descr="Gráfico de las respuestas de Formularios. Título de la pregunta: Edad. Número de respuestas: 51&amp;nbsp;respuestas."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2286000" y="1295400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 3" descr="Gráfico de las respuestas de Formularios. Título de la pregunta: Edad. Número de respuestas: 51&amp;nbsp;respuestas."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="809625"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3" descr="Gráfico de las respuestas de Formularios. Título de la pregunta: Edad. Número de respuestas: 51&amp;nbsp;respuestas."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="1619250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pollex" refreshedDate="43174.999566435188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M51" sheet="Respuestas de formulario 1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Marca temporal" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-03-14T22:49:24" maxDate="2018-03-15T23:25:33"/>
+    </cacheField>
+    <cacheField name="Edad" numFmtId="0">
+      <sharedItems count="5">
+        <s v="18 - 22"/>
+        <s v="28 - 32"/>
+        <s v="23 - 27"/>
+        <s v="33 - 37"/>
+        <s v="38 a más"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Género" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Hombre"/>
+        <s v="Mujer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿A qué te dedicas actualmente? " numFmtId="0">
+      <sharedItems count="6">
+        <s v="Trabajador independiente"/>
+        <s v="Trabajador dependiente"/>
+        <s v="Estudio"/>
+        <s v="Estudio y trabajo dependiente"/>
+        <s v="También independiente "/>
+        <s v="Trabajo y estudio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿A cuánto asciende tu ingreso mensual?" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Entre 2001 soles a 2500 soles"/>
+        <s v="Entre 1501 soles a 2000 soles"/>
+        <s v="Más de 2500 soles"/>
+        <s v="Menos de 500 soles"/>
+        <s v="Entre 501 y 1000 soles"/>
+        <s v="Entre 1001 a 1500 soles"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿Cuanto estas dispuesto a ahorrar mensualmente?" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Entre 100 a 500 soles"/>
+        <s v="Menos de 100 soles"/>
+        <s v="Entre 501 a 1000 soles"/>
+        <s v="Más de 1500 soles"/>
+        <s v="Entre 1001 a 1500 soles"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿Cuáles son los motivos por los que ahorras?" numFmtId="0">
+      <sharedItems count="32">
+        <s v="Futuras inversiones "/>
+        <s v="Vacaciones y viajes"/>
+        <s v="Inversión en negocio"/>
+        <s v="Emergencias e imprevistos, invertir en un negocio"/>
+        <s v="Emergencias e imprevistos"/>
+        <s v="Invertir en un negocio"/>
+        <s v="Adquirir una vivienda"/>
+        <s v="Emergencias e imprevistos, Vacaciones y viajes, Invertir en un negocio"/>
+        <s v="Emergencias e imprevistos, Vacaciones y viajes"/>
+        <s v="Jubliación y futuro familiar"/>
+        <s v="Vacaciones y viajes, Adquirir una vivienda, Adquirir un automóvil"/>
+        <s v="Vacaciones y viajes, Adquirir una vivienda, Invertir en un negocio"/>
+        <s v="estudios"/>
+        <s v="Emergencias e imprevistos, Jubilación y futuro familiar lo manejo con una AFP"/>
+        <s v="Vacaciones y viajes, Adquirir una vivienda, Adquirir un automóvil, Invertir en un negocio"/>
+        <s v="Emergencias e imprevistos, Vacaciones y viajes, Invertir en un negocio, Estudios"/>
+        <s v="Jubliación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc), Invertir en un negocio"/>
+        <s v="Vacaciones y viajes, Invertir en un negocio"/>
+        <s v="Jubliación y futuro familiar, Vacaciones y viajes, Adquirir una vivienda"/>
+        <s v="Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc), Conciertos, Salidas, Trabajos, Ropa y zapatos (no me gusta que mis padres me den para pagar alguno de estos)"/>
+        <s v="Jubliación y futuro familiar, Emergencias e imprevistos, Invertir en un negocio"/>
+        <s v="Emergencias e imprevistos, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)"/>
+        <s v="Pagar estudios universitarios"/>
+        <s v="Emergencias e imprevistos, Vacaciones y viajes, Operación a la vista"/>
+        <s v="Vacaciones y viajes, Preparar un evento importante en la familia (bautizo, matrimonio, graduación, cumpleaños, etc)"/>
+        <s v="Emergencias e imprevistos, Adquirir un automóvil, Invertir en un negocio"/>
+        <s v="Jubliación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Invertir en un negocio"/>
+        <s v="Jubliación y futuro familiar, Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda"/>
+        <s v="Emergencias e imprevistos, Vacaciones y viajes, Adquirir una vivienda, Invertir en un negocio"/>
+        <s v="Vacaciones y viajes, Estudios"/>
+        <s v="Jubliación y futuro familiar, Emergencias e imprevistos"/>
+        <s v="Comprar cosas que necesite en un futuro cercano o que me gusten"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿Alguna vez has invertido?" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Sí"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="¿Por qué decidiste invertir? o ¿Por qué no?" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="¿Estarías dispuest@ a invertir un porcentaje de tus ahorros? ¿Qué porcentaje?" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Entre 61% a 80%"/>
+        <s v="Menos del 20%"/>
+        <s v="Entre 81% a 100%"/>
+        <s v="Entre 21% a 40%"/>
+        <s v="No estaria dispuest@ a invertir"/>
+        <s v="Entre 41% a 60%"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="En el caso que no estés dispuesto a invertir. ¿Cuál sería el principal motivo?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Si inviertes 1000 soles, existe la posibilidad de ganar 2000 soles así como perder 500. ¿Jugarías esto alguna vez?" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Sí"/>
+        <s v="No"/>
+        <s v="Tal vez"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="En base a la pregunta anterior.¿Volverías a jugar?" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Sí"/>
+        <s v="No"/>
+        <s v="Tal vez"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+  <r>
+    <d v="2018-03-14T22:49:24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Para generar un ingreso adicional"/>
+    <x v="0"/>
+    <s v="No tener aún los conocimientos necesarios para esa inversión "/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-14T22:54:40"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Para viajar al extranjero"/>
+    <x v="1"/>
+    <s v="Estoy dispuesta a ahorrar"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T22:54:50"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Para tener un flujo de efectivo constante "/>
+    <x v="2"/>
+    <s v="Me da flojera"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-14T22:55:16"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Porque no tengo aún el dinero suficiente"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T22:55:51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Inseguridad"/>
+    <x v="3"/>
+    <s v="No sé de finanzas, Desconfió"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:08:41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Para ganar en base a la inversion"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:09:46"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="Porque no hay confianza"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:10:04"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Porque a mi parecer ún no estaba académicamente preparado"/>
+    <x v="1"/>
+    <s v="Me tomaría tiempo en evaluarlo"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:10:32"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No he tenido dinero para hacerlo"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:17:57"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="No me encuentro interesada"/>
+    <x v="4"/>
+    <s v="Desconfió"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:22:39"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Ganar intereses"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:23:44"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="Para poder duplicar mi presupuesto.."/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:25:41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Porque necesitaba dinero "/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:26:46"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="No he tenido la oportunidad"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:30:49"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <s v="Invertido en la bolsa o invertido en algo?"/>
+    <x v="1"/>
+    <s v="No sé de finanzas, Me da flojera, No tengo plata, Desconfió"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:31:09"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <s v="Porque aun no me siento preparada."/>
+    <x v="3"/>
+    <s v="No tengo plata"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:32:24"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <s v="Bueno antes que nada tendría que conocer o tener buenos referentes sobre la financiera."/>
+    <x v="4"/>
+    <s v="Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:45:45"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <s v="Quise incursionar en un negocio propio"/>
+    <x v="3"/>
+    <s v="No tengo plata, Desconfió"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:48:19"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="0"/>
+    <s v="Porque estoy haciendo negocios"/>
+    <x v="3"/>
+    <s v="Si estoy dispuesta"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:51:55"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="No lo he decidió aun."/>
+    <x v="3"/>
+    <s v="No tengo plata"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:53:12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Para generar más ingresos"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:56:21"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <s v="Aún nosé en que invertir."/>
+    <x v="3"/>
+    <s v="No sé de finanzas, No tengo plata, Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-14T23:59:41"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <s v="Porque aun estoy ahorrando y evaluando el negocio en el q invertire."/>
+    <x v="3"/>
+    <s v="Indique q si estaria dispuesta a invertir."/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T00:53:24"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <s v="Prefiero solo ahorrar."/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T01:22:51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <s v="Aún no tengo la oportunidad de invertir-"/>
+    <x v="3"/>
+    <s v="Sí estoy dispuesta"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T01:36:21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <s v="Por creo que para invertir se necesita un fuerte capital"/>
+    <x v="1"/>
+    <s v="No tengo plata, Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T01:59:29"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <s v="Porque las finanzas o temas de dinero no son lo mío, me causa mucha inseguridad por el tema legal, y mi sueldo al menos en la época en la que trabajaba(ahora me encuentro estudiando) mi sueldo era poco, se iba en gastos familiares, apenas y podía ahorrar para algo. _x000a_Pero, si me informase mejor de cómo hacerlo correctamente, me animaría a hacerlo."/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata, Desconfió"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T03:32:11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="Pretamo de dinero"/>
+    <x v="2"/>
+    <s v="Me da flojera"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T05:20:54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="No he tenido plata"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T06:32:08"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No tenía muy claro el tema de las inveriosiones"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T06:32:16"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="1"/>
+    <s v="Riesgo de pérdida del capital"/>
+    <x v="4"/>
+    <s v="No tengo plata, Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T07:08:02"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Tengo miedo con lo que pueda pasar con mi dinero"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T07:33:33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="1"/>
+    <s v="No me gusta arriesgar"/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata, Desconfió"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T07:40:25"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="25"/>
+    <x v="0"/>
+    <s v="Para ganar mas dinero :v"/>
+    <x v="1"/>
+    <s v="Desconfió"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T08:12:41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="porque el monto de dinero que ahorro es pequeño"/>
+    <x v="2"/>
+    <s v="---"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T08:32:47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <s v="Porque podría generar algún ingreso extra."/>
+    <x v="1"/>
+    <s v="No sé de finanzas, No tengo plata"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T08:50:02"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="No sabía en donde"/>
+    <x v="3"/>
+    <s v="Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T08:52:42"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="1"/>
+    <s v="No tengo asesoría para hacerlo."/>
+    <x v="3"/>
+    <s v="Sí quiero hacerlo. "/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T09:00:48"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="siento que me falta información para hacerlo _x000a_"/>
+    <x v="3"/>
+    <s v="No sé de finanzas"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T09:32:01"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="No soy de hacer negocios, me parece que es correr un riesgo, me da temor."/>
+    <x v="4"/>
+    <s v="No tengo plata, Temor a perder lo invertido"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T09:43:57"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="Me da miedo y siento que no soy una persona muy orientada a esas cosas"/>
+    <x v="1"/>
+    <s v="No sé de finanzas"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T10:10:08"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="28"/>
+    <x v="1"/>
+    <s v="-"/>
+    <x v="1"/>
+    <s v="No sé de finanzas"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T10:15:50"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Crecimiento empresarial"/>
+    <x v="0"/>
+    <s v="Si estoy dispuesto"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T13:11:19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <s v="No estoy interesada"/>
+    <x v="3"/>
+    <s v="Desconfió"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T14:09:36"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <s v="No he buscado información al respecto."/>
+    <x v="3"/>
+    <s v="No sé de finanzas, Desconfió"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T16:34:47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="porque quiero tener mas , para ganar mas "/>
+    <x v="5"/>
+    <s v="Desconfió"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T17:19:14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Por un negocio de belleza"/>
+    <x v="3"/>
+    <s v="."/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T20:02:54"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="0"/>
+    <s v="Construcción de viviendas y empresa familiar"/>
+    <x v="1"/>
+    <s v="No tengo plata"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-15T20:26:50"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="No sé en qué"/>
+    <x v="3"/>
+    <s v="No sé de finanzas"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-03-15T23:25:33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <s v="No se como"/>
+    <x v="3"/>
+    <s v="No sé de finanzas"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="6"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="16"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,11 +4852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -643,7 +4864,7 @@
     <col min="1" max="19" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43173.950975763888</v>
       </c>
@@ -703,7 +4924,7 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -715,7 +4936,7 @@
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -725,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43173.954626030092</v>
       </c>
@@ -744,7 +4965,7 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -756,7 +4977,7 @@
       <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -766,7 +4987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43173.954749027776</v>
       </c>
@@ -785,7 +5006,7 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -797,7 +5018,7 @@
       <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -807,7 +5028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43173.955046620365</v>
       </c>
@@ -826,7 +5047,7 @@
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -838,7 +5059,7 @@
       <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -848,7 +5069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43173.955446956017</v>
       </c>
@@ -859,37 +5080,37 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43173.964359837963</v>
       </c>
@@ -906,10 +5127,10 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
@@ -920,7 +5141,7 @@
       <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -930,7 +5151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43173.965120277775</v>
       </c>
@@ -947,9 +5168,9 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -961,17 +5182,17 @@
       <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43173.965328784718</v>
       </c>
@@ -982,15 +5203,15 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1002,17 +5223,17 @@
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43173.965649224541</v>
       </c>
@@ -1026,12 +5247,12 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1043,17 +5264,17 @@
       <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43173.97079994213</v>
       </c>
@@ -1072,7 +5293,7 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1084,17 +5305,17 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43173.974065011571</v>
       </c>
@@ -1111,9 +5332,9 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1125,17 +5346,17 @@
       <c r="J12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43173.974809849533</v>
       </c>
@@ -1149,34 +5370,34 @@
         <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>63</v>
+      <c r="G13" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>65</v>
+      <c r="K13" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43173.976163402782</v>
       </c>
@@ -1193,31 +5414,31 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>65</v>
+      <c r="K14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43173.976925208335</v>
       </c>
@@ -1234,31 +5455,31 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43173.979737696762</v>
       </c>
@@ -1277,20 +5498,20 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>70</v>
+      <c r="G16" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>72</v>
+      <c r="K16" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>19</v>
@@ -1299,7 +5520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43173.97996902778</v>
       </c>
@@ -1318,29 +5539,29 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>73</v>
+      <c r="G17" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43173.98083375</v>
       </c>
@@ -1359,19 +5580,19 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>75</v>
+      <c r="G18" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -1381,12 +5602,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43173.990108425925</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1398,31 +5619,31 @@
         <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43173.991882141199</v>
       </c>
@@ -1433,28 +5654,28 @@
         <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>19</v>
@@ -1463,7 +5684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43173.994382453704</v>
       </c>
@@ -1482,29 +5703,29 @@
       <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
+      <c r="G21" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43173.995283379627</v>
       </c>
@@ -1521,21 +5742,21 @@
         <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -1545,7 +5766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43173.997468784721</v>
       </c>
@@ -1559,25 +5780,25 @@
         <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>89</v>
+      <c r="G23" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>31</v>
@@ -1600,25 +5821,25 @@
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>19</v>
@@ -1627,8 +5848,1370 @@
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43174.037083564814</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43174.057534340274</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43174.066913333329</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43174.082972465279</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43174.147350231477</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43174.222847002311</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43174.272311273147</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43174.272404340278</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43174.297244189816</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43174.314959745374</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43174.31973456018</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43174.342136539351</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43174.356094039351</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43174.368084004629</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43174.369931550929</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43174.375556909727</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43174.397236562501</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43174.405518101848</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43174.423708750001</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43174.427662743052</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43174.549527847223</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43174.589998067131</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43174.690819965283</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43174.721691076389</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43174.835350277775</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43174.851970752316</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43174.976078067135</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M24"/>
+  <autoFilter ref="A1:M51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A13:B15">
+    <sortCondition descending="1" ref="B13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.0927835051546393E-2</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.1237113402061855E-2</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9.2783505154639179E-2</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.14432989690721648</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.22680412371134021</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.25773195876288657</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4.8387096774193547E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.24193548387096775</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="C28:D32">
+    <sortCondition ref="D28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/docs/Asesoría financiera (Respuestas).xlsx
+++ b/assets/docs/Asesoría financiera (Respuestas).xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -916,9 +916,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1119,7 +1117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1446,7 +1443,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4430,7 +4426,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -4852,11 +4848,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4905,7 +4902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43173.950975763888</v>
       </c>
@@ -4946,7 +4943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43173.954626030092</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43173.964359837963</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43173.974065011571</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43173.974809849533</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43173.976163402782</v>
       </c>
@@ -5602,7 +5599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43173.990108425925</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43173.991882141199</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43173.995283379627</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43174.147350231477</v>
       </c>
@@ -6258,7 +6255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43174.31973456018</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43174.356094039351</v>
       </c>
@@ -6627,7 +6624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43174.427662743052</v>
       </c>
@@ -6791,7 +6788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43174.721691076389</v>
       </c>
@@ -6832,7 +6829,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43174.835350277775</v>
       </c>
@@ -6956,7 +6953,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M51"/>
+  <autoFilter ref="A1:M51">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/assets/docs/Asesoría financiera (Respuestas).xlsx
+++ b/assets/docs/Asesoría financiera (Respuestas).xlsx
@@ -4851,9 +4851,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
